--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3399218.617970092</v>
+        <v>3392201.603078381</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>2.160765271962464</v>
       </c>
       <c r="V2" t="n">
-        <v>147.3772474162714</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>309.0945286669841</v>
       </c>
       <c r="F5" t="n">
-        <v>299.3293571650746</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>139.5761221697817</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>115.4685441446654</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>335.1434440301873</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>67.3378365078426</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.423550711833</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>91.97546116399354</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>145.3660141484332</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>172.7935996261252</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>134.9443573138264</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.68164956070992</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>131.4813549397307</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.54139430664212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.6158642557984</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>37.82703792520461</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>48.7027337978781</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.7059714321717</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.9303464341697</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>20.53226464137164</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2245.125655651148</v>
       </c>
       <c r="V2" t="n">
-        <v>2075.886732147294</v>
+        <v>1914.062768307577</v>
       </c>
       <c r="W2" t="n">
-        <v>1723.11807687718</v>
+        <v>1561.294113037463</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="3">
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C5" t="n">
-        <v>1487.242648509747</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D5" t="n">
-        <v>1487.242648509747</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E5" t="n">
-        <v>1101.454395911503</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9963436509397</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9963436509397</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1683.829970582156</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1683.829970582156</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582156</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.829970582156</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2499.751565046674</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>2499.751565046674</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>2499.751565046674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>2351.838471464281</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>2499.751565046674</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>2499.751565046674</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>2499.751565046674</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>2499.751565046674</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>614.2381923230582</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>921.5583256030199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.964542768369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033469</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663864</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>391.964542768369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.964542768369</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,46 +5515,46 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1324.377281036564</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1035.248642250122</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1035.248642250122</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>745.8314722131613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845924</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765191</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765191</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>272.5660590645748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>272.5660590645748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>272.5660590645748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>272.5660590645748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383447</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>675.0071030383447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>454.2145238948145</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,7 +6217,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>806.1650729342605</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903951</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>1142.321405913337</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324578</v>
+        <v>887.6369177074498</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324578</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324578</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y28" t="n">
-        <v>359.1696912903951</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293934</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>933.2366688293934</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>705.247117931376</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.8169520164281</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4070.552597600371</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4350.092662819068</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1149.712027817902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1149.712027817902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>895.0275396120149</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>895.0275396120149</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>895.0275396120149</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>698.8634468392138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3827.704265900556</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3658.768082972649</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3658.768082972649</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4371.805924143403</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4117.121435937516</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>3827.704265900556</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>3827.704265900556</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>3827.704265900556</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,31 +7168,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>378.1030765138943</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203583</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003199</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.490562163493</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.92115703528</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>959.9316061372629</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.181495781369</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>877.7643257444088</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>649.7747748463914</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>80.50021372615237</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>15.83804904622875</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>274.3657496970635</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>20.6378986413543</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3877236703332</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>165.9802687929761</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>165.9802687929763</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>91.23759968302122</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>349.7653003338567</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>87.85651901794375</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>21.88080695019468</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>48.75396143226402</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>90.76529807521078</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>120.7393984622213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>154.7559974588466</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>158.0432590454527</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.96878909629638</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>183.7205231331846</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>97.73122884869107</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.126008749765646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>26.68512658404269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>231.6053786824563</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.85454099</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="H2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="J2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="K2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409902</v>
-      </c>
       <c r="O2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26481,34 +26481,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685323</v>
+        <v>-128906.1859685319</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460122</v>
+        <v>461061.6932460126</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460121</v>
+        <v>461061.6932460127</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307544</v>
+        <v>36875.35530335322</v>
       </c>
       <c r="F6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="G6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802494</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802497</v>
       </c>
       <c r="I6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802493</v>
       </c>
       <c r="J6" t="n">
-        <v>386586.7638473784</v>
+        <v>385612.1725876568</v>
       </c>
       <c r="K6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="L6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="M6" t="n">
-        <v>428208.9678061345</v>
+        <v>427234.3765464126</v>
       </c>
       <c r="N6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802497</v>
       </c>
       <c r="O6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="P6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802497</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>249.0634022363268</v>
       </c>
       <c r="V2" t="n">
-        <v>180.3750110538635</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.7961607607226</v>
       </c>
       <c r="X4" t="n">
-        <v>63.37316471551392</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>72.83584140527768</v>
       </c>
       <c r="F5" t="n">
-        <v>107.5466885766369</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>86.13353321925541</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>103.1161092074294</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>19.53959759049565</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>339.5382092338688</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>56.71409261199503</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>329.7579186821767</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>642.866388531833</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209233</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>523.6234546530879</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>331.0622756918206</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>630.5822970683462</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>415.2379737490004</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>476.4046458434426</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>241.8130382709604</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>599.023005289881</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3392201.603078381</v>
+        <v>3397140.865927412</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.160765271962464</v>
+        <v>17.23430169187246</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>309.0945286669841</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>168.257543372298</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>77.72878559814581</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.4685441446654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>67.3378365078426</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>186.2507170030313</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.97546116399354</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>198.7307177961563</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>73.50096938092101</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,10 +2535,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>141.9490099230715</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>131.4813549397307</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>145.4037679456281</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,13 +3559,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>256.6289271138774</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>29.3220157029459</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>235.556406673431</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2245.125655651148</v>
+        <v>2679.740705470876</v>
       </c>
       <c r="V2" t="n">
-        <v>1914.062768307577</v>
+        <v>2348.677818127306</v>
       </c>
       <c r="W2" t="n">
-        <v>1561.294113037463</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X2" t="n">
-        <v>1187.828354776384</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1187.828354776384</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4518,13 +4518,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
         <v>667.7988452409105</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.803581887074</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1706.841064946662</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.575366339912</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2153.726218239669</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4770,7 +4770,7 @@
         <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>262.9439240077763</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>262.9439240077763</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>262.9439240077763</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>255.9984232585728</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>242.0750191971637</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844523</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5706,16 +5706,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4575213834697</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899338</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698953</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5934,25 +5934,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.5442748166591</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>731.5442748166591</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,16 +6211,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402495</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1142.321405913337</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>887.6369177074498</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>598.2197476704891</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>598.2197476704891</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>598.2197476704891</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6472,7 +6472,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1352.043777683531</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1128.258362473036</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>839.1297236865947</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,7 +7210,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7371,13 +7371,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7845,13 +7845,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>199.6230805871081</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>15.83804904622875</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>297.3877236703344</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.85651901794375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>53.40692552767169</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="20">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>110.1886334007565</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>154.7559974588466</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>52.51704203797519</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>117.1119469436233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409902</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409901</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.85454099</v>
       </c>
       <c r="K2" t="n">
         <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="M2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="O2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.85454099</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26450,16 +26450,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685319</v>
+        <v>-128906.185968532</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460126</v>
+        <v>461061.6932460121</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460127</v>
+        <v>461061.6932460118</v>
       </c>
       <c r="E6" t="n">
-        <v>36875.35530335322</v>
+        <v>37752.48743710233</v>
       </c>
       <c r="F6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="G6" t="n">
-        <v>562035.3917802494</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="H6" t="n">
-        <v>562035.3917802497</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="I6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="J6" t="n">
-        <v>385612.1725876568</v>
+        <v>386489.3047214059</v>
       </c>
       <c r="K6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="L6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139994</v>
       </c>
       <c r="M6" t="n">
-        <v>427234.3765464126</v>
+        <v>428111.508680162</v>
       </c>
       <c r="N6" t="n">
-        <v>562035.3917802497</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="O6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="P6" t="n">
-        <v>562035.3917802497</v>
+        <v>562912.5239139994</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>249.0634022363268</v>
+        <v>233.9898658164169</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>226.7961607607226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>72.83584140527768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.158169436673518</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>89.51803550048203</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.1161092074294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>339.5382092338688</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>137.6720557613259</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375746</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>166.413487634168</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>579.7514259114425</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
